--- a/form_reporting_templates/Form-3BU-multiple.xlsx
+++ b/form_reporting_templates/Form-3BU-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E76815D-0069-44DA-9FE9-F7997E12F304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F38EB-C9FE-4C6E-A827-0CFF4A440D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -81,9 +81,6 @@
     <t>Reporting entity</t>
   </si>
   <si>
-    <t>IOTC form 3-BU | metadata</t>
-  </si>
-  <si>
     <t>Reporting month</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Day of month</t>
   </si>
   <si>
-    <t>IOTC form 3-BU | data</t>
-  </si>
-  <si>
     <t>Longitude</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>3-BU-multiple</t>
-  </si>
-  <si>
     <t>Buoy position</t>
   </si>
   <si>
@@ -127,6 +118,15 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>IOTC Form 3BU | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3BU | metadata</t>
+  </si>
+  <si>
+    <t>3BU-multiple</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1205,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="43" t="s">
@@ -1253,7 +1253,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="37"/>
       <c r="F8" s="60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="33"/>
@@ -1274,12 +1274,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="33"/>
@@ -1296,7 +1296,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="37"/>
@@ -1361,7 +1361,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="37"/>
       <c r="F18" s="35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="33"/>
@@ -1449,7 +1449,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SpWq+d66E3MAa+zsORnEi9fLnqJEqWJWECDg8LW89ejd3dRlgGvHPLZ1RBo13CrieS+7hZ8XgK/kN6QmbKPBbw==" saltValue="eHhCYCc4FFd22hTfoQCJAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8sZRdivUhE8utRhzKTVSHqGOoEEHozTmeAeoD43Dq/+Q9ezxpaX51PdXG5crtiNReG1wnXTnWpv+cLpWkbL7Rw==" saltValue="3syXLJUclryq6s8FDkmkEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1530,34 +1530,34 @@
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
       <c r="H55" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lh0RyzXA4zLC5+CQ2xOwdPLh7mRqxC6gSPscJEP1kN7SPup/7c9fnkNt5Xe9aPIxf6M7YRQDdeyqEGWaQvF9gg==" saltValue="79bI4YlCKRmHKHcmEF6D5Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="c025d6muSTNKnb07OmbDCABrZuPVevvIiIvqmM/ytMpfbDryuGFpT077ClCou4zmTSQXmyxGeTDzzoqVmfzjlg==" saltValue="kGtbgH9/H4thntsJsVIQMA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="G4:H4"/>

--- a/form_reporting_templates/Form-3BU-multiple.xlsx
+++ b/form_reporting_templates/Form-3BU-multiple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F38EB-C9FE-4C6E-A827-0CFF4A440D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB340ADA-BB78-41F9-A96C-38829B232238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GFpj//VivYAPeIU08ZJg1Dux9toxRhSuIx/DIcXzwdN7RVpS32MIopnBIf/zfwa+hDKrfFh8CXTLPmmG/7iI6w==" workbookSaltValue="5rYiPYrZuKGJOy5hPiufCQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>3BU-multiple</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1202,17 +1202,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="47"/>
     </row>
@@ -1228,7 +1228,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="34"/>
       <c r="C6" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -1253,7 +1253,7 @@
       <c r="D8" s="60"/>
       <c r="E8" s="37"/>
       <c r="F8" s="60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="33"/>
@@ -1274,12 +1274,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
       <c r="C10" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="33"/>
@@ -1296,7 +1296,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="C12" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="37"/>
@@ -1307,7 +1307,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="37"/>
@@ -1356,12 +1356,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
       <c r="C18" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="37"/>
       <c r="F18" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="33"/>
@@ -1369,7 +1369,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="34"/>
       <c r="C19" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="37"/>
@@ -1380,7 +1380,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="34"/>
       <c r="C20" s="49" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="37"/>
@@ -1409,7 +1409,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="34"/>
       <c r="C23" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="36"/>
       <c r="E23" s="37"/>
@@ -1449,7 +1449,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8sZRdivUhE8utRhzKTVSHqGOoEEHozTmeAeoD43Dq/+Q9ezxpaX51PdXG5crtiNReG1wnXTnWpv+cLpWkbL7Rw==" saltValue="3syXLJUclryq6s8FDkmkEQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mOlHcuND9zRewHuMD+UwKs5tg+kZAH8UoD3QMgVs4mVGvN6FesIgfeqJZvvsnaXLsfalDa9aRAo7tx8goIaRLA==" saltValue="Uy3ZCbAnA2eGFeN/93FEYg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1463,7 +1463,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{145A36E7-23E2-4F23-9423-3ABF5B1644A9}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{D830AF7F-6DD6-4CCC-B4E3-A0AB89AFD734}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -1524,40 +1524,40 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
       <c r="E4" s="71"/>
       <c r="F4" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="68"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="E5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
